--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61c04629ed40d49f/Documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amino\hello-you\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{1272DEEA-DCE5-41F0-AAEB-7CCE9F0C48DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5174DC4F-931E-4E3A-831D-A51AADA019CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47326E79-02E2-4677-ADB8-9540A336E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5600E06-52C8-48B7-BEF6-30ADC71210EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>start</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>main ending</t>
+  </si>
+  <si>
+    <t>start=begin</t>
+  </si>
+  <si>
+    <t>1.=nummer van de vraag</t>
+  </si>
+  <si>
+    <t>.1=nummer van de keuze(a of b)</t>
+  </si>
+  <si>
+    <t>A=welk deel van het verhaal</t>
+  </si>
+  <si>
+    <t>death=je hebt verloren en moet opnieuw</t>
+  </si>
+  <si>
+    <t>ending=het einde die je zult krijgen</t>
+  </si>
+  <si>
+    <t>&lt;=collectible</t>
   </si>
 </sst>
 </file>
@@ -566,14 +587,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -590,7 +611,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6446520" y="1607820"/>
+          <a:off x="5890260" y="1607820"/>
           <a:ext cx="563880" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1599,6 +1620,324 @@
         <a:xfrm>
           <a:off x="5783580" y="1973580"/>
           <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38563C5-9DB4-4154-9131-E9A8358BBC8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550140" y="3078480"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E89AD1-51C9-4EC5-8238-F0931B7437AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="2331720"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606A23C0-E98D-4CBE-862E-E489B1B192D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814060" y="1584960"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0947CC-8D38-4281-9E58-420F4798D87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461760" y="1607820"/>
+          <a:ext cx="563880" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BE7CEC-48D7-430C-99FC-A016476246A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="1242060"/>
+          <a:ext cx="563880" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D328FB-D7AB-4893-83C7-E0CB9742D12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5234940" y="1226820"/>
+          <a:ext cx="518160" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1924,20 +2263,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F29E14B-FC2B-4C54-A54A-59C30C996FF5}">
-  <dimension ref="F1:O15"/>
+  <dimension ref="F1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:20" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G3">
         <v>1.1000000000000001</v>
       </c>
@@ -1945,12 +2284,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:20" x14ac:dyDescent="0.3">
       <c r="H5">
         <v>2.1</v>
       </c>
@@ -1961,7 +2300,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>2</v>
       </c>
@@ -1977,13 +2316,19 @@
       <c r="L7" t="s">
         <v>6</v>
       </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:20" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
         <v>2</v>
       </c>
+      <c r="T8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>2</v>
       </c>
@@ -1996,16 +2341,22 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:20" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>7</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:20" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>1</v>
       </c>
@@ -2021,16 +2372,22 @@
       <c r="L11" t="s">
         <v>14</v>
       </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:20" x14ac:dyDescent="0.3">
       <c r="M12" t="s">
         <v>9</v>
       </c>
       <c r="O12" t="s">
         <v>10</v>
       </c>
+      <c r="T12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:20" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>5.2</v>
       </c>
@@ -2047,12 +2404,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:20" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>2</v>
       </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
       <c r="K15" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="21:22" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="21:22" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="21:22" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
